--- a/排课数据.xlsx
+++ b/排课数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23028B52-D943-4BE0-ADCE-7FD1A43C9BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A963D-3759-4AFD-AD05-3D3CBBE63BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="26">
   <si>
     <t>课程名称</t>
   </si>
@@ -39,6 +39,18 @@
     <t>available_teachers</t>
   </si>
   <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>听力</t>
+  </si>
+  <si>
+    <t>业务</t>
+  </si>
+  <si>
+    <t>实操</t>
+  </si>
+  <si>
     <t>班级ID</t>
   </si>
   <si>
@@ -51,6 +63,9 @@
     <t>courses</t>
   </si>
   <si>
+    <t>阅读,听力,业务,实操</t>
+  </si>
+  <si>
     <t>教师姓名</t>
   </si>
   <si>
@@ -58,6 +73,44 @@
   </si>
   <si>
     <t>时间段</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>赵子寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈俊华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雪峰,陈俊华,赵子寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雪峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>is_two_teacher</t>
@@ -387,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -410,7 +463,63 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +533,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,21 +545,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2">
+        <v>2433101</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45991</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
@@ -466,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CAC4C3-1D2D-4945-9033-3173AB9A6673}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,239 +598,551 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45982</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45956</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45956</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45957</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45957</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45956</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45956</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45957</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45957</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -918,7 +1349,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -928,50 +1359,146 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+      <c r="A2">
+        <v>2433101</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="A3">
+        <v>2433101</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="A4">
+        <v>2433101</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+      <c r="A5">
+        <v>2433101</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="A6">
+        <v>2433101</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="A7">
+        <v>2433101</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="A8">
+        <v>2433101</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="A9">
+        <v>2433101</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+      <c r="A10">
+        <v>2433101</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+      <c r="A11">
+        <v>2433101</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
+      <c r="A12">
+        <v>2433101</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="A13">
+        <v>2433101</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/排课数据.xlsx
+++ b/排课数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A963D-3759-4AFD-AD05-3D3CBBE63BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1630B9-FDB1-40E4-9CC5-19DB4F16391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课程数据" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
   <si>
     <t>课程名称</t>
   </si>
@@ -79,24 +79,12 @@
   </si>
   <si>
     <t>下午</t>
-  </si>
-  <si>
-    <t>赵子寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>陈俊华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈雪峰,陈俊华,赵子寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈雪峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +102,22 @@
   </si>
   <si>
     <t>is_two_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵子龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈文田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈世美,陈文田,赵子龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈世美</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -474,10 +478,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -488,10 +492,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -502,10 +506,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -516,10 +520,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -585,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CAC4C3-1D2D-4945-9033-3173AB9A6673}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,507 +613,507 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>45982</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>45950</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>45950</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>45952</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>45953</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>45953</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>45954</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>45955</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>45955</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>45956</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>45956</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>45957</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>45957</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>45959</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>45960</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>45960</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>45961</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>45962</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>45962</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>45950</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>45950</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>45953</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>45953</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <v>45955</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
         <v>45955</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <v>45956</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>45956</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>45957</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>45957</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>45960</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
         <v>45960</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
         <v>45962</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1">
         <v>45962</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1">
         <v>45952</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1">
         <v>45954</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1">
         <v>45958</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1">
         <v>45958</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1">
         <v>45959</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1">
         <v>45961</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1"/>
       <c r="H40" s="1"/>
@@ -1348,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5813C8-91EB-4A1F-8A11-B07A4C4D31C5}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
